--- a/biology/Zoologie/Arctosa_conflicta/Arctosa_conflicta.xlsx
+++ b/biology/Zoologie/Arctosa_conflicta/Arctosa_conflicta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arctosa conflicta est une espèce d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arctosa conflicta est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Pérou dans la région de Cajamarca, en Équateur dans les provinces de Cañar, de Santo Domingo de los Tsáchilas et de Pichincha et en Colombie dans le département de Cundinamarca[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Pérou dans la région de Cajamarca, en Équateur dans les provinces de Cañar, de Santo Domingo de los Tsáchilas et de Pichincha et en Colombie dans le département de Cundinamarca,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 5,80 mm et la femelle paratype 6,95 mm, les mâles mesurent de 4,40 à 6,90 mm et les femelles de 5,90 à 8,50 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 5,80 mm et la femelle paratype 6,95 mm, les mâles mesurent de 4,40 à 6,90 mm et les femelles de 5,90 à 8,50 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Paredes-Munguía, Brescovit et Teixeira en 2024.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paredes-Munguía, Brescovit &amp; Teixeira, 2024 : « Revision of Neotropical wolf spider genus Arctosa C.L. Koch, 1847 (Araneae: Lycosidae), with description of seven new species. » Zootaxa, no 5414(1), p. 1-83.</t>
         </is>
